--- a/hwk2/Q1/res.xlsx
+++ b/hwk2/Q1/res.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rutgers\2nd Semester\DATA STRUCT &amp; ALGS\Homework\hwk2\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31A5564-AB7B-4B00-B538-E80FCAB3749E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DFDA1C-2508-4C68-91B9-B6F0584843A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -273,37 +274,37 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.4000000000006201E-6</c:v>
+                  <c:v>1.3520000000000101E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6999999999983697E-6</c:v>
+                  <c:v>1.96779999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7000000000003707E-6</c:v>
+                  <c:v>2.4249999999999901E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9700000000000899E-5</c:v>
+                  <c:v>4.1005999999999898E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8899999999997502E-5</c:v>
+                  <c:v>5.1929999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0999999999998094E-5</c:v>
+                  <c:v>1.075E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>1.6449999999999701E-4</c:v>
+                  <c:v>3.6839999999998998E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>4.5669999999999001E-4</c:v>
+                  <c:v>6.3518000000000099E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.1099999999997203E-4</c:v>
+                  <c:v>7.6879999999945805E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1.47150000000007E-3</c:v>
+                  <c:v>1.31037999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>3.76960000000003E-3</c:v>
+                  <c:v>1.57939999999712E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,42 +398,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$L$3</c:f>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7000000000013099E-6</c:v>
+                  <c:v>1.35099999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2000000000003398E-6</c:v>
+                  <c:v>2.0055999999999902E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1000000000004595E-6</c:v>
+                  <c:v>2.4430000000000198E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.23999999999992E-5</c:v>
+                  <c:v>4.1502999999999896E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4000000000002697E-5</c:v>
+                  <c:v>5.1139999999999497E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0199999999999803E-5</c:v>
+                  <c:v>1.09519999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9399999999999394E-5</c:v>
+                  <c:v>1.4371000000000099E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>3.0680000000000898E-4</c:v>
+                  <c:v>0.1025816</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.0580000000000004E-4</c:v>
+                  <c:v>4.3119999999987604E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.5740000000011896E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2.6190000000001399E-3</c:v>
+                  <c:v>0.287618299999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,40 +526,40 @@
             <c:numRef>
               <c:f>Sheet1!$B$4:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.09999999999746E-6</c:v>
+                  <c:v>1.4110000000000099E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7000000000028401E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.42999999999979E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2299999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.7669999999999701E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1.48449999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>6.9021000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>2.8127099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.11717279999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.49777009999999899</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1.98893979999999</c:v>
+                  <c:v>2.3508000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>2.57099999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>4.3182000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3469999999999896E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1382E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04587999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5845634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9678099999999702E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.3308062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16030840000000501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,37 +658,37 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.11999999999994E-5</c:v>
+                  <c:v>4.1140000000000198E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96000000000015E-5</c:v>
+                  <c:v>6.3241999999999899E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1099999999998702E-5</c:v>
+                  <c:v>7.4389999999999797E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.2439999999999999E-4</c:v>
+                  <c:v>1.25691E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>4.5959999999999702E-4</c:v>
+                  <c:v>1.56539999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.6156999999999901E-3</c:v>
+                  <c:v>3.3084E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>7.1659999999999901E-3</c:v>
+                  <c:v>1.22642999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>2.8890599999999999E-2</c:v>
+                  <c:v>2.6934968000000001</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.11828959999999999</c:v>
+                  <c:v>4.4758899999997902E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.50009899999999996</c:v>
+                  <c:v>10.631528299999999</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1.9953284</c:v>
+                  <c:v>0.17531680000000399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,37 +787,37 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.14999999999976E-5</c:v>
+                  <c:v>1.35900000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2600000000000202E-5</c:v>
+                  <c:v>2.0306E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1.61899999999999E-4</c:v>
+                  <c:v>2.46200000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>6.6489999999999898E-4</c:v>
+                  <c:v>4.0629999999999902E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.4790999999999902E-3</c:v>
+                  <c:v>5.4029999999999302E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.05638E-2</c:v>
+                  <c:v>1.08599999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>4.2778299999999998E-2</c:v>
+                  <c:v>6.6637299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.19322819999999999</c:v>
+                  <c:v>17.988751099999899</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.83062389999999997</c:v>
+                  <c:v>0.270269600000002</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>3.4304160000000001</c:v>
+                  <c:v>72.209443099999902</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>14.1255814</c:v>
+                  <c:v>1.1209328999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,37 +1153,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2560</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5120</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10240</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,37 +1282,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2560</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5120</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10240</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,37 +1411,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2560</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5120</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10240</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,37 +1540,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2560</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5120</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10240</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,37 +1669,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2560</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5120</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10240</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,15 +3047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3084,15 +3082,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3384,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,232 +3393,250 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>10</v>
+        <v>1024</v>
       </c>
       <c r="C1">
-        <v>20</v>
+        <v>16384</v>
       </c>
       <c r="D1">
-        <v>40</v>
+        <v>2048</v>
       </c>
       <c r="E1">
-        <v>80</v>
+        <v>32768</v>
       </c>
       <c r="F1">
-        <v>160</v>
+        <v>4096</v>
       </c>
       <c r="G1">
-        <v>320</v>
+        <v>8192</v>
       </c>
       <c r="H1">
-        <v>640</v>
+        <v>1024</v>
       </c>
       <c r="I1">
-        <v>1280</v>
+        <v>16384</v>
       </c>
       <c r="J1">
-        <v>2560</v>
+        <v>2048</v>
       </c>
       <c r="K1">
-        <v>5120</v>
+        <v>32768</v>
       </c>
       <c r="L1">
-        <v>10240</v>
+        <v>4096</v>
+      </c>
+      <c r="M1">
+        <v>8192</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3.4000000000006201E-6</v>
+        <v>1.3520000000000101E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>6.6999999999983697E-6</v>
+        <v>1.96779999999999E-3</v>
       </c>
       <c r="D2" s="1">
-        <v>8.7000000000003707E-6</v>
+        <v>2.4249999999999901E-4</v>
       </c>
       <c r="E2" s="1">
-        <v>1.9700000000000899E-5</v>
+        <v>4.1005999999999898E-3</v>
       </c>
       <c r="F2" s="1">
-        <v>4.8899999999997502E-5</v>
+        <v>5.1929999999999999E-4</v>
       </c>
       <c r="G2" s="1">
-        <v>7.0999999999998094E-5</v>
+        <v>1.075E-3</v>
       </c>
       <c r="H2">
-        <v>1.6449999999999701E-4</v>
+        <v>3.6839999999998998E-4</v>
       </c>
       <c r="I2">
-        <v>4.5669999999999001E-4</v>
+        <v>6.3518000000000099E-3</v>
       </c>
       <c r="J2">
-        <v>6.1099999999997203E-4</v>
+        <v>7.6879999999945805E-4</v>
       </c>
       <c r="K2">
-        <v>1.47150000000007E-3</v>
+        <v>1.31037999999996E-2</v>
       </c>
       <c r="L2">
-        <v>3.76960000000003E-3</v>
+        <v>1.57939999999712E-3</v>
+      </c>
+      <c r="M2">
+        <v>3.1359000000037401E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.7000000000013099E-6</v>
+        <v>1.35099999999999E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.2000000000003398E-6</v>
+        <v>2.0055999999999902E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>8.1000000000004595E-6</v>
+        <v>2.4430000000000198E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>1.23999999999992E-5</v>
+        <v>4.1502999999999896E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>3.4000000000002697E-5</v>
+        <v>5.1139999999999497E-4</v>
       </c>
       <c r="G3" s="1">
-        <v>6.0199999999999803E-5</v>
+        <v>1.09519999999999E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>9.9399999999999394E-5</v>
+        <v>1.4371000000000099E-3</v>
       </c>
       <c r="I3">
-        <v>3.0680000000000898E-4</v>
+        <v>0.1025816</v>
       </c>
       <c r="J3">
-        <v>5.0580000000000004E-4</v>
+        <v>4.3119999999987604E-3</v>
       </c>
       <c r="K3">
-        <v>8.5740000000011896E-4</v>
-      </c>
-      <c r="L3">
-        <v>2.6190000000001399E-3</v>
+        <v>0.287618299999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.3429000000002101E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.6463900000001097E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5.09999999999746E-6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.7000000000028401E-6</v>
+      <c r="B4">
+        <v>1.4110000000000099E-4</v>
+      </c>
+      <c r="C4">
+        <v>2.3508000000000001E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>2.42999999999979E-5</v>
+        <v>2.57099999999996E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>9.2299999999999994E-5</v>
+        <v>4.3182000000000003E-3</v>
       </c>
       <c r="F4">
-        <v>3.7669999999999701E-4</v>
+        <v>5.3469999999999896E-4</v>
       </c>
       <c r="G4">
-        <v>1.48449999999999E-3</v>
+        <v>1.1382E-3</v>
       </c>
       <c r="H4">
-        <v>6.9021000000000004E-3</v>
+        <v>1.04587999999999E-2</v>
       </c>
       <c r="I4">
-        <v>2.8127099999999999E-2</v>
+        <v>2.5845634</v>
       </c>
       <c r="J4">
-        <v>0.11717279999999999</v>
+        <v>3.9678099999999702E-2</v>
       </c>
       <c r="K4">
-        <v>0.49777009999999899</v>
+        <v>10.3308062</v>
       </c>
       <c r="L4">
-        <v>1.98893979999999</v>
+        <v>0.16030840000000501</v>
+      </c>
+      <c r="M4">
+        <v>0.65066900000000705</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.11999999999994E-5</v>
+        <v>4.1140000000000198E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.96000000000015E-5</v>
+        <v>6.3241999999999899E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.1099999999998702E-5</v>
+        <v>7.4389999999999797E-4</v>
       </c>
       <c r="E5">
-        <v>1.2439999999999999E-4</v>
+        <v>1.25691E-2</v>
       </c>
       <c r="F5">
-        <v>4.5959999999999702E-4</v>
+        <v>1.56539999999999E-3</v>
       </c>
       <c r="G5">
-        <v>1.6156999999999901E-3</v>
+        <v>3.3084E-3</v>
       </c>
       <c r="H5">
-        <v>7.1659999999999901E-3</v>
+        <v>1.22642999999999E-2</v>
       </c>
       <c r="I5">
-        <v>2.8890599999999999E-2</v>
+        <v>2.6934968000000001</v>
       </c>
       <c r="J5">
-        <v>0.11828959999999999</v>
+        <v>4.4758899999997902E-2</v>
       </c>
       <c r="K5">
-        <v>0.50009899999999996</v>
+        <v>10.631528299999999</v>
       </c>
       <c r="L5">
-        <v>1.9953284</v>
+        <v>0.17531680000000399</v>
+      </c>
+      <c r="M5">
+        <v>0.69026880000001201</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>1.14999999999976E-5</v>
+        <v>1.35900000000001E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>4.2600000000000202E-5</v>
+        <v>2.0306E-3</v>
       </c>
       <c r="D6">
-        <v>1.61899999999999E-4</v>
+        <v>2.46200000000001E-4</v>
       </c>
       <c r="E6">
-        <v>6.6489999999999898E-4</v>
+        <v>4.0629999999999902E-3</v>
       </c>
       <c r="F6">
-        <v>2.4790999999999902E-3</v>
+        <v>5.4029999999999302E-4</v>
       </c>
       <c r="G6">
-        <v>1.05638E-2</v>
+        <v>1.08599999999998E-3</v>
       </c>
       <c r="H6">
-        <v>4.2778299999999998E-2</v>
+        <v>6.6637299999999997E-2</v>
       </c>
       <c r="I6">
-        <v>0.19322819999999999</v>
+        <v>17.988751099999899</v>
       </c>
       <c r="J6">
-        <v>0.83062389999999997</v>
+        <v>0.270269600000002</v>
       </c>
       <c r="K6">
-        <v>3.4304160000000001</v>
+        <v>72.209443099999902</v>
       </c>
       <c r="L6">
-        <v>14.1255814</v>
+        <v>1.1209328999999899</v>
+      </c>
+      <c r="M6">
+        <v>4.5643677</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -3655,7 +3671,7 @@
         <v>10240</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3849,4 +3865,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1561359F-BC04-4273-A39E-305D4FFFF082}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1024</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.3520000000000101E-4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.35099999999999E-4</v>
+      </c>
+      <c r="D1">
+        <v>1.4110000000000099E-4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4.1140000000000198E-4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1.35900000000001E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1024</v>
+      </c>
+      <c r="B2">
+        <v>3.6839999999998998E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4371000000000099E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.04587999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.22642999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.6637299999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2048</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.4249999999999901E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.4430000000000198E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.57099999999996E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.4389999999999797E-4</v>
+      </c>
+      <c r="F3">
+        <v>2.46200000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2048</v>
+      </c>
+      <c r="B4">
+        <v>7.6879999999945805E-4</v>
+      </c>
+      <c r="C4">
+        <v>4.3119999999987604E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.9678099999999702E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.4758899999997902E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.270269600000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4096</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.1929999999999999E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.1139999999999497E-4</v>
+      </c>
+      <c r="D5">
+        <v>5.3469999999999896E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.56539999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.4029999999999302E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4096</v>
+      </c>
+      <c r="B6">
+        <v>1.57939999999712E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.3429000000002101E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.16030840000000501</v>
+      </c>
+      <c r="E6">
+        <v>0.17531680000000399</v>
+      </c>
+      <c r="F6">
+        <v>1.1209328999999899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8192</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.075E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.09519999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.1382E-3</v>
+      </c>
+      <c r="E7">
+        <v>3.3084E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.08599999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8192</v>
+      </c>
+      <c r="B8">
+        <v>3.1359000000037401E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6463900000001097E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.65066900000000705</v>
+      </c>
+      <c r="E8">
+        <v>0.69026880000001201</v>
+      </c>
+      <c r="F8">
+        <v>4.5643677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16384</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.96779999999999E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0055999999999902E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.3508000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.3241999999999899E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.0306E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16384</v>
+      </c>
+      <c r="B10">
+        <v>6.3518000000000099E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.1025816</v>
+      </c>
+      <c r="D10">
+        <v>2.5845634</v>
+      </c>
+      <c r="E10">
+        <v>2.6934968000000001</v>
+      </c>
+      <c r="F10">
+        <v>17.988751099999899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32768</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.1005999999999898E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.1502999999999896E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.3182000000000003E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.25691E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.0629999999999902E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32768</v>
+      </c>
+      <c r="B12">
+        <v>1.31037999999996E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.287618299999998</v>
+      </c>
+      <c r="D12">
+        <v>10.3308062</v>
+      </c>
+      <c r="E12">
+        <v>10.631528299999999</v>
+      </c>
+      <c r="F12">
+        <v>72.209443099999902</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F12">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>